--- a/sonarkeys.xlsx
+++ b/sonarkeys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIS Global\March2023\microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA09BDE6-551F-4C3F-8698-40B9752F7E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDF55D7-E306-4C58-AB7D-3F9EF6A2F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FB19466D-2C96-40C2-8970-F6BD96A07489}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>DisplayName</t>
   </si>
@@ -180,13 +180,16 @@
   </si>
   <si>
     <t>cf0e1f4599a9808cbca71853fbf216429f4ba110</t>
+  </si>
+  <si>
+    <t>mvn verify org.sonarsource.scanner.maven:sonar-maven-plugin:sonar -Dsonar.projectKey=fis-global_aayushitripathi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,10 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,19 +566,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DAFDF3-D769-4B84-A002-8AAAA84365B7}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -591,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -599,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -607,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -615,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -623,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -631,7 +642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -639,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -647,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -655,7 +666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -663,7 +674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -671,7 +682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -679,7 +690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -687,7 +698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -695,7 +706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -703,7 +714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -711,7 +722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -719,7 +730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -727,7 +738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -735,7 +746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -743,7 +754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -751,7 +762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -759,7 +770,13 @@
         <v>47</v>
       </c>
     </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sonarkeys.xlsx
+++ b/sonarkeys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIS Global\March2023\microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDF55D7-E306-4C58-AB7D-3F9EF6A2F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA67DC-4E6C-459F-BEA2-004EBC5E9FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FB19466D-2C96-40C2-8970-F6BD96A07489}"/>
   </bookViews>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DAFDF3-D769-4B84-A002-8AAAA84365B7}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
